--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Identificador</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>Efetuar Login</t>
+  </si>
+  <si>
+    <t>CSU-31</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -434,11 +440,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,6 +526,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,10 +852,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="17"/>
     </row>
@@ -815,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>32</v>
@@ -827,7 +876,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>32</v>
@@ -839,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
@@ -851,21 +900,19 @@
         <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>32</v>
@@ -879,19 +926,21 @@
         <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>32</v>
@@ -903,21 +952,19 @@
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>32</v>
@@ -931,19 +978,21 @@
         <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>32</v>
@@ -955,47 +1004,45 @@
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>37</v>
@@ -1009,10 +1056,10 @@
         <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>70</v>
@@ -1023,10 +1070,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>70</v>
@@ -1037,7 +1084,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>33</v>
@@ -1051,19 +1098,21 @@
         <v>57</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>33</v>
@@ -1075,21 +1124,19 @@
         <v>59</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>34</v>
@@ -1103,33 +1150,33 @@
         <v>61</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>34</v>
@@ -1143,33 +1190,33 @@
         <v>64</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>34</v>
@@ -1178,17 +1225,31 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D32" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>Identificador</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>CSU-31</t>
+  </si>
+  <si>
+    <t>Efetuar Saque</t>
+  </si>
+  <si>
+    <t>Exibir Saque</t>
+  </si>
+  <si>
+    <t>CSU-32</t>
+  </si>
+  <si>
+    <t>CSU-33</t>
   </si>
 </sst>
 </file>
@@ -818,18 +830,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="23.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -864,107 +876,115 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>32</v>
@@ -978,21 +998,19 @@
         <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>32</v>
@@ -1004,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>32</v>
@@ -1016,10 +1034,10 @@
         <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>70</v>
@@ -1030,10 +1048,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8"/>
     </row>
@@ -1042,24 +1060,22 @@
         <v>53</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>70</v>
@@ -1070,38 +1086,34 @@
         <v>55</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>70</v>
@@ -1112,10 +1124,10 @@
         <v>58</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -1124,10 +1136,10 @@
         <v>59</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -1136,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>34</v>
@@ -1150,21 +1162,19 @@
         <v>61</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>34</v>
@@ -1176,7 +1186,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>34</v>
@@ -1190,7 +1200,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>34</v>
@@ -1204,7 +1214,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>34</v>
@@ -1215,41 +1225,65 @@
       <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="B31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="18"/>
+      <c r="B32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Identificador</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>CSU-33</t>
+  </si>
+  <si>
+    <t>Administrador/Comprador/Organizadora/Usuário Comum</t>
+  </si>
+  <si>
+    <t>Usuário Comum</t>
   </si>
 </sst>
 </file>
@@ -833,14 +839,14 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="23.42578125" style="4"/>
   </cols>
@@ -879,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>70</v>
@@ -893,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>70</v>
@@ -1113,7 +1119,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>70</v>
@@ -1241,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>70</v>

--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -131,15 +131,6 @@
     <t>Organizadora</t>
   </si>
   <si>
-    <t>Administrador/Comprador</t>
-  </si>
-  <si>
-    <t>Administrador/Comprador/Organizadora</t>
-  </si>
-  <si>
-    <t>Administrador/Organizadora</t>
-  </si>
-  <si>
     <t>CSU-01</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>Ator(es)</t>
   </si>
   <si>
-    <t>Desenvolver em PR1A5</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -257,10 +245,22 @@
     <t>CSU-33</t>
   </si>
   <si>
-    <t>Administrador/Comprador/Organizadora/Usuário Comum</t>
-  </si>
-  <si>
     <t>Usuário Comum</t>
+  </si>
+  <si>
+    <t>Administrador; Comprador; Organizadora</t>
+  </si>
+  <si>
+    <t>Administrador; Comprador; Organizadora; Usuário Comum</t>
+  </si>
+  <si>
+    <t>Administrador; Organizadora</t>
+  </si>
+  <si>
+    <t>Administrador; Comprador</t>
+  </si>
+  <si>
+    <t>PR1A5</t>
   </si>
 </sst>
 </file>
@@ -495,66 +495,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,461 +824,461 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="23.42578125" style="4"/>
+    <col min="1" max="1" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="23.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>70</v>
+      <c r="D34" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="1.1811023622047245" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -110,18 +110,6 @@
     <t>Excluir Organizadora</t>
   </si>
   <si>
-    <t>Cadastrar ingresso disponível</t>
-  </si>
-  <si>
-    <t>Exibir ingresso disponível</t>
-  </si>
-  <si>
-    <t>Editar ingresso disponível</t>
-  </si>
-  <si>
-    <t>Excluir ingresso disponível</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
@@ -261,6 +249,18 @@
   </si>
   <si>
     <t>PR1A5</t>
+  </si>
+  <si>
+    <t>Exibir Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>Excluir Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>Editar Tipo de Ingresso</t>
+  </si>
+  <si>
+    <t>Cadastrar Tipo de ingresso</t>
   </si>
 </sst>
 </file>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,436 +845,436 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Identificador</t>
   </si>
@@ -47,18 +47,6 @@
     <t>Exibir Pedido</t>
   </si>
   <si>
-    <t>Cadastrar Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>Exibir Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>Editar Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>Excluir Categoria de Ingresso</t>
-  </si>
-  <si>
     <t>Excluir Comprador</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>CSU-03</t>
   </si>
   <si>
-    <t>CSU-04</t>
-  </si>
-  <si>
     <t>CSU-05</t>
   </si>
   <si>
@@ -156,15 +141,6 @@
   </si>
   <si>
     <t>CSU-13</t>
-  </si>
-  <si>
-    <t>CSU-14</t>
-  </si>
-  <si>
-    <t>CSU-15</t>
-  </si>
-  <si>
-    <t>CSU-16</t>
   </si>
   <si>
     <t>CSU-17</t>
@@ -822,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,436 +821,384 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>62</v>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>Identificador</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Cadastrar Tipo de ingresso</t>
+  </si>
+  <si>
+    <t>CSU-04</t>
+  </si>
+  <si>
+    <t>Editar Conta ADM</t>
   </si>
 </sst>
 </file>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -869,62 +875,60 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>65</v>
@@ -935,13 +939,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>54</v>
@@ -949,22 +953,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
@@ -973,48 +979,48 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
@@ -1023,74 +1029,74 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
@@ -1099,24 +1105,22 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -1127,22 +1131,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -1151,53 +1157,65 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
     </row>

--- a/files/Casos de Uso/Resumo Casos de Uso.xlsx
+++ b/files/Casos de Uso/Resumo Casos de Uso.xlsx
@@ -194,21 +194,12 @@
     <t>Efetuar Login</t>
   </si>
   <si>
-    <t>CSU-31</t>
-  </si>
-  <si>
     <t>Efetuar Saque</t>
   </si>
   <si>
     <t>Exibir Saque</t>
   </si>
   <si>
-    <t>CSU-32</t>
-  </si>
-  <si>
-    <t>CSU-33</t>
-  </si>
-  <si>
     <t>Usuário Comum</t>
   </si>
   <si>
@@ -227,22 +218,31 @@
     <t>PR1A5</t>
   </si>
   <si>
-    <t>Exibir Tipo de Ingresso</t>
-  </si>
-  <si>
-    <t>Excluir Tipo de Ingresso</t>
-  </si>
-  <si>
-    <t>Editar Tipo de Ingresso</t>
-  </si>
-  <si>
-    <t>Cadastrar Tipo de ingresso</t>
-  </si>
-  <si>
     <t>CSU-04</t>
   </si>
   <si>
-    <t>Editar Conta ADM</t>
+    <t>Cadastrar Conta ADM</t>
+  </si>
+  <si>
+    <t>CSU-14</t>
+  </si>
+  <si>
+    <t>CSU-15</t>
+  </si>
+  <si>
+    <t>CSU-16</t>
+  </si>
+  <si>
+    <t>Cadastrar tipo de ingresso</t>
+  </si>
+  <si>
+    <t>Exibir tipo de ingresso</t>
+  </si>
+  <si>
+    <t>Editar tipo de ingresso</t>
+  </si>
+  <si>
+    <t>Excluir tipo de ingresso</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>54</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>54</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>24</v>
@@ -893,7 +893,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>54</v>
@@ -904,10 +904,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -916,10 +916,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>54</v>
@@ -945,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>54</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>54</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>22</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>23</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>8</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>10</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>11</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>54</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>7</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
